--- a/Literature survey/Collecting Russell Conjugations/Examples/Media sources to compare.xlsx
+++ b/Literature survey/Collecting Russell Conjugations/Examples/Media sources to compare.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5734D1D-95F6-4699-A514-D9D45DDADC26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A876B9EA-5B9A-4DEB-9E12-B0E83FA90A90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,19 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
-  <si>
-    <t>Topics</t>
-  </si>
-  <si>
-    <t>Trump administration coverage</t>
-  </si>
-  <si>
-    <t>Shutdown coverage</t>
-  </si>
-  <si>
-    <t>2016 elections coverage</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -95,15 +83,6 @@
   </si>
   <si>
     <t xml:space="preserve">New York Post </t>
-  </si>
-  <si>
-    <t>Sr. No.</t>
-  </si>
-  <si>
-    <t>Israel vs Palestine</t>
-  </si>
-  <si>
-    <t>Brexit</t>
   </si>
 </sst>
 </file>
@@ -154,15 +133,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -445,202 +421,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G13"/>
+  <dimension ref="B1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="64.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3">
-        <v>4</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1">
-        <v>5</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
